--- a/Macedonia_merged_data.xlsx
+++ b/Macedonia_merged_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb544155\OneDrive - WBG\Documents\GitHub\Microsimulation_Macedonia_Tax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2273275C-6D58-4D83-A792-1B827110C1B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{90F0ABD2-537C-4D77-907A-D35898242739}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2273275C-6D58-4D83-A792-1B827110C1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90F0ABD2-537C-4D77-907A-D35898242739}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6305,10 +6307,10 @@
   <dimension ref="A1:Q1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B407" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B689" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="F694" sqref="F694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
